--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H2">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I2">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J2">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.024984</v>
       </c>
       <c r="O2">
-        <v>4.729113979504156E-05</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="P2">
-        <v>4.729113979504156E-05</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="Q2">
-        <v>0.257509152488</v>
+        <v>0.449060656016</v>
       </c>
       <c r="R2">
-        <v>2.317582372392</v>
+        <v>4.041545904144</v>
       </c>
       <c r="S2">
-        <v>2.078201126367724E-05</v>
+        <v>2.903394414199084E-05</v>
       </c>
       <c r="T2">
-        <v>2.078201126367724E-05</v>
+        <v>2.903394414199084E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H3">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I3">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J3">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.90246200000001</v>
+        <v>29.59913266666667</v>
       </c>
       <c r="N3">
-        <v>215.707386</v>
+        <v>88.79739800000002</v>
       </c>
       <c r="O3">
-        <v>0.4083032399195082</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="P3">
-        <v>0.4083032399195082</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="Q3">
-        <v>2223.287950458769</v>
+        <v>1596.03817636863</v>
       </c>
       <c r="R3">
-        <v>20009.59155412892</v>
+        <v>14364.34358731767</v>
       </c>
       <c r="S3">
-        <v>0.1794281670473253</v>
+        <v>0.1031915903572738</v>
       </c>
       <c r="T3">
-        <v>0.1794281670473253</v>
+        <v>0.1031915903572738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H4">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I4">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J4">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>17.89860066666667</v>
+        <v>0.02209433333333333</v>
       </c>
       <c r="N4">
-        <v>53.695802</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="O4">
-        <v>0.1016384757760515</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="P4">
-        <v>0.1016384757760515</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="Q4">
-        <v>553.4406206045251</v>
+        <v>1.191365972730889</v>
       </c>
       <c r="R4">
-        <v>4980.965585440726</v>
+        <v>10.722293754578</v>
       </c>
       <c r="S4">
-        <v>0.04466485598687892</v>
+        <v>7.702757443017847E-05</v>
       </c>
       <c r="T4">
-        <v>0.04466485598687892</v>
+        <v>7.702757443017847E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H5">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I5">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J5">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.29124966666666</v>
+        <v>16.32241633333333</v>
       </c>
       <c r="N5">
-        <v>258.873749</v>
+        <v>48.967249</v>
       </c>
       <c r="O5">
-        <v>0.4900109931646453</v>
+        <v>0.09497032652525923</v>
       </c>
       <c r="P5">
-        <v>0.4900109931646453</v>
+        <v>0.09497032652525923</v>
       </c>
       <c r="Q5">
-        <v>2668.202037559287</v>
+        <v>880.1338840553482</v>
       </c>
       <c r="R5">
-        <v>24013.81833803358</v>
+        <v>7921.204956498133</v>
       </c>
       <c r="S5">
-        <v>0.215334500784036</v>
+        <v>0.05690491403510073</v>
       </c>
       <c r="T5">
-        <v>0.215334500784036</v>
+        <v>0.05690491403510073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.82562466666667</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H6">
-        <v>53.476874</v>
+        <v>161.765366</v>
       </c>
       <c r="I6">
-        <v>0.2533381526612474</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J6">
-        <v>0.2533381526612474</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.008328</v>
+        <v>125.916621</v>
       </c>
       <c r="N6">
-        <v>0.024984</v>
+        <v>377.749863</v>
       </c>
       <c r="O6">
-        <v>4.729113979504156E-05</v>
+        <v>0.7326331081817961</v>
       </c>
       <c r="P6">
-        <v>4.729113979504156E-05</v>
+        <v>0.7326331081817961</v>
       </c>
       <c r="Q6">
-        <v>0.148451802224</v>
+        <v>6789.649427182762</v>
       </c>
       <c r="R6">
-        <v>1.336066220016</v>
+        <v>61106.84484464486</v>
       </c>
       <c r="S6">
-        <v>1.198064999292063E-05</v>
+        <v>0.4389836864387885</v>
       </c>
       <c r="T6">
-        <v>1.198064999292063E-05</v>
+        <v>0.4389836864387885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>53.476874</v>
       </c>
       <c r="I7">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J7">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>71.90246200000001</v>
+        <v>0.008328</v>
       </c>
       <c r="N7">
-        <v>215.707386</v>
+        <v>0.024984</v>
       </c>
       <c r="O7">
-        <v>0.4083032399195082</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="P7">
-        <v>0.4083032399195082</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="Q7">
-        <v>1281.706300221263</v>
+        <v>0.148451802224</v>
       </c>
       <c r="R7">
-        <v>11535.35670199136</v>
+        <v>1.336066220016</v>
       </c>
       <c r="S7">
-        <v>0.1034387885268103</v>
+        <v>9.598127281486708E-06</v>
       </c>
       <c r="T7">
-        <v>0.1034387885268103</v>
+        <v>9.598127281486708E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>53.476874</v>
       </c>
       <c r="I8">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J8">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.89860066666667</v>
+        <v>29.59913266666667</v>
       </c>
       <c r="N8">
-        <v>53.695802</v>
+        <v>88.79739800000002</v>
       </c>
       <c r="O8">
-        <v>0.1016384757760515</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="P8">
-        <v>0.1016384757760515</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="Q8">
-        <v>319.0537375425498</v>
+        <v>527.6230293748725</v>
       </c>
       <c r="R8">
-        <v>2871.483637882948</v>
+        <v>4748.607264373853</v>
       </c>
       <c r="S8">
-        <v>0.02574890369240984</v>
+        <v>0.03411338169503816</v>
       </c>
       <c r="T8">
-        <v>0.02574890369240984</v>
+        <v>0.03411338169503816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>53.476874</v>
       </c>
       <c r="I9">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J9">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>86.29124966666666</v>
+        <v>0.02209433333333333</v>
       </c>
       <c r="N9">
-        <v>258.873749</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="O9">
-        <v>0.4900109931646453</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="P9">
-        <v>0.4900109931646453</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="Q9">
-        <v>1538.195428575625</v>
+        <v>0.3938452932602222</v>
       </c>
       <c r="R9">
-        <v>13843.75885718062</v>
+        <v>3.544607639342</v>
       </c>
       <c r="S9">
-        <v>0.1241384797920344</v>
+        <v>2.546400378637461E-05</v>
       </c>
       <c r="T9">
-        <v>0.1241384797920344</v>
+        <v>2.546400378637461E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3620696666666667</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H10">
-        <v>1.086209</v>
+        <v>53.476874</v>
       </c>
       <c r="I10">
-        <v>0.005145741717513648</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J10">
-        <v>0.005145741717513646</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.008328</v>
+        <v>16.32241633333333</v>
       </c>
       <c r="N10">
-        <v>0.024984</v>
+        <v>48.967249</v>
       </c>
       <c r="O10">
-        <v>4.729113979504156E-05</v>
+        <v>0.09497032652525923</v>
       </c>
       <c r="P10">
-        <v>4.729113979504156E-05</v>
+        <v>0.09497032652525923</v>
       </c>
       <c r="Q10">
-        <v>0.003015316184</v>
+        <v>290.9572672110696</v>
       </c>
       <c r="R10">
-        <v>0.027137845656</v>
+        <v>2618.615404899626</v>
       </c>
       <c r="S10">
-        <v>2.433479909121152E-07</v>
+        <v>0.01881179508990765</v>
       </c>
       <c r="T10">
-        <v>2.433479909121151E-07</v>
+        <v>0.01881179508990765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3620696666666667</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H11">
-        <v>1.086209</v>
+        <v>53.476874</v>
       </c>
       <c r="I11">
-        <v>0.005145741717513648</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J11">
-        <v>0.005145741717513646</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.90246200000001</v>
+        <v>125.916621</v>
       </c>
       <c r="N11">
-        <v>215.707386</v>
+        <v>377.749863</v>
       </c>
       <c r="O11">
-        <v>0.4083032399195082</v>
+        <v>0.7326331081817961</v>
       </c>
       <c r="P11">
-        <v>0.4083032399195082</v>
+        <v>0.7326331081817961</v>
       </c>
       <c r="Q11">
-        <v>26.03370044885267</v>
+        <v>2244.542425240918</v>
       </c>
       <c r="R11">
-        <v>234.303304039674</v>
+        <v>20200.88182716826</v>
       </c>
       <c r="S11">
-        <v>0.002101023015049797</v>
+        <v>0.1451205277632952</v>
       </c>
       <c r="T11">
-        <v>0.002101023015049797</v>
+        <v>0.1451205277632952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H12">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I12">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J12">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>17.89860066666667</v>
+        <v>0.008328</v>
       </c>
       <c r="N12">
-        <v>53.695802</v>
+        <v>0.024984</v>
       </c>
       <c r="O12">
-        <v>0.1016384757760515</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="P12">
-        <v>0.1016384757760515</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="Q12">
-        <v>6.480540377179778</v>
+        <v>0.000234935656</v>
       </c>
       <c r="R12">
-        <v>58.324863394618</v>
+        <v>0.002114420904</v>
       </c>
       <c r="S12">
-        <v>0.0005230053449053288</v>
+        <v>1.518972687071241E-08</v>
       </c>
       <c r="T12">
-        <v>0.0005230053449053286</v>
+        <v>1.51897268707124E-08</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H13">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I13">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J13">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>86.29124966666666</v>
+        <v>29.59913266666667</v>
       </c>
       <c r="N13">
-        <v>258.873749</v>
+        <v>88.79739800000002</v>
       </c>
       <c r="O13">
-        <v>0.4900109931646453</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="P13">
-        <v>0.4900109931646453</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="Q13">
-        <v>31.24344400306011</v>
+        <v>0.8350013989042224</v>
       </c>
       <c r="R13">
-        <v>281.190996027541</v>
+        <v>7.515012590138001</v>
       </c>
       <c r="S13">
-        <v>0.00252147000956761</v>
+        <v>5.398688050151874E-05</v>
       </c>
       <c r="T13">
-        <v>0.002521470009567609</v>
+        <v>5.398688050151874E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>20.32321033333333</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H14">
-        <v>60.96963099999999</v>
+        <v>0.084631</v>
       </c>
       <c r="I14">
-        <v>0.2888338926837407</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J14">
-        <v>0.2888338926837407</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1305,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.008328</v>
+        <v>0.02209433333333333</v>
       </c>
       <c r="N14">
-        <v>0.024984</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="O14">
-        <v>4.729113979504156E-05</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="P14">
-        <v>4.729113979504156E-05</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="Q14">
-        <v>0.169251695656</v>
+        <v>0.0006232885081111111</v>
       </c>
       <c r="R14">
-        <v>1.523265260904</v>
+        <v>0.005609596573</v>
       </c>
       <c r="S14">
-        <v>1.365928399645281E-05</v>
+        <v>4.029861776222504E-08</v>
       </c>
       <c r="T14">
-        <v>1.365928399645281E-05</v>
+        <v>4.029861776222503E-08</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>20.32321033333333</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H15">
-        <v>60.96963099999999</v>
+        <v>0.084631</v>
       </c>
       <c r="I15">
-        <v>0.2888338926837407</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J15">
-        <v>0.2888338926837407</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>71.90246200000001</v>
+        <v>16.32241633333333</v>
       </c>
       <c r="N15">
-        <v>215.707386</v>
+        <v>48.967249</v>
       </c>
       <c r="O15">
-        <v>0.4083032399195082</v>
+        <v>0.09497032652525923</v>
       </c>
       <c r="P15">
-        <v>0.4083032399195082</v>
+        <v>0.09497032652525923</v>
       </c>
       <c r="Q15">
-        <v>1461.288858710508</v>
+        <v>0.4604608055687778</v>
       </c>
       <c r="R15">
-        <v>13151.59972839457</v>
+        <v>4.144147250119</v>
       </c>
       <c r="S15">
-        <v>0.1179318141813349</v>
+        <v>2.977101896894673E-05</v>
       </c>
       <c r="T15">
-        <v>0.1179318141813348</v>
+        <v>2.977101896894673E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>20.32321033333333</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H16">
-        <v>60.96963099999999</v>
+        <v>0.084631</v>
       </c>
       <c r="I16">
-        <v>0.2888338926837407</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J16">
-        <v>0.2888338926837407</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.89860066666667</v>
+        <v>125.916621</v>
       </c>
       <c r="N16">
-        <v>53.695802</v>
+        <v>377.749863</v>
       </c>
       <c r="O16">
-        <v>0.1016384757760515</v>
+        <v>0.7326331081817961</v>
       </c>
       <c r="P16">
-        <v>0.1016384757760515</v>
+        <v>0.7326331081817961</v>
       </c>
       <c r="Q16">
-        <v>363.7570260210069</v>
+        <v>3.552149850617</v>
       </c>
       <c r="R16">
-        <v>3273.813234189061</v>
+        <v>31.969348655553</v>
       </c>
       <c r="S16">
-        <v>0.02935663660483905</v>
+        <v>0.0002296636745284594</v>
       </c>
       <c r="T16">
-        <v>0.02935663660483905</v>
+        <v>0.0002296636745284594</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H17">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I17">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J17">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>86.29124966666666</v>
+        <v>0.008328</v>
       </c>
       <c r="N17">
-        <v>258.873749</v>
+        <v>0.024984</v>
       </c>
       <c r="O17">
-        <v>0.4900109931646453</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="P17">
-        <v>0.4900109931646453</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="Q17">
-        <v>1753.715216901846</v>
+        <v>0.14933754332</v>
       </c>
       <c r="R17">
-        <v>15783.43695211662</v>
+        <v>1.34403788988</v>
       </c>
       <c r="S17">
-        <v>0.1415317826135704</v>
+        <v>9.655394728903909E-06</v>
       </c>
       <c r="T17">
-        <v>0.1415317826135703</v>
+        <v>9.655394728903909E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1402096666666666</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H18">
-        <v>0.420629</v>
+        <v>53.795945</v>
       </c>
       <c r="I18">
-        <v>0.001992662731478056</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J18">
-        <v>0.001992662731478056</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.008328</v>
+        <v>29.59913266666667</v>
       </c>
       <c r="N18">
-        <v>0.024984</v>
+        <v>88.79739800000002</v>
       </c>
       <c r="O18">
-        <v>4.729113979504156E-05</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="P18">
-        <v>4.729113979504156E-05</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="Q18">
-        <v>0.001167666104</v>
+        <v>530.7711043279013</v>
       </c>
       <c r="R18">
-        <v>0.010508994936</v>
+        <v>4776.939938951111</v>
       </c>
       <c r="S18">
-        <v>9.42352917986981E-08</v>
+        <v>0.03431691997236562</v>
       </c>
       <c r="T18">
-        <v>9.423529179869809E-08</v>
+        <v>0.03431691997236561</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1402096666666666</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H19">
-        <v>0.420629</v>
+        <v>53.795945</v>
       </c>
       <c r="I19">
-        <v>0.001992662731478056</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J19">
-        <v>0.001992662731478056</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>71.90246200000001</v>
+        <v>0.02209433333333333</v>
       </c>
       <c r="N19">
-        <v>215.707386</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="O19">
-        <v>0.4083032399195082</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="P19">
-        <v>0.4083032399195082</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="Q19">
-        <v>10.08142022953267</v>
+        <v>0.3961951802705556</v>
       </c>
       <c r="R19">
-        <v>90.73278206579401</v>
+        <v>3.565756622435</v>
       </c>
       <c r="S19">
-        <v>0.0008136106493293472</v>
+        <v>2.561593535126232E-05</v>
       </c>
       <c r="T19">
-        <v>0.0008136106493293471</v>
+        <v>2.561593535126232E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1402096666666666</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H20">
-        <v>0.420629</v>
+        <v>53.795945</v>
       </c>
       <c r="I20">
-        <v>0.001992662731478056</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J20">
-        <v>0.001992662731478056</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.89860066666667</v>
+        <v>16.32241633333333</v>
       </c>
       <c r="N20">
-        <v>53.695802</v>
+        <v>48.967249</v>
       </c>
       <c r="O20">
-        <v>0.1016384757760515</v>
+        <v>0.09497032652525923</v>
       </c>
       <c r="P20">
-        <v>0.1016384757760515</v>
+        <v>0.09497032652525923</v>
       </c>
       <c r="Q20">
-        <v>2.509556833273111</v>
+        <v>292.6932704450339</v>
       </c>
       <c r="R20">
-        <v>22.586011499458</v>
+        <v>2634.239434005305</v>
       </c>
       <c r="S20">
-        <v>0.0002025312027631731</v>
+        <v>0.01892403609844401</v>
       </c>
       <c r="T20">
-        <v>0.0002025312027631731</v>
+        <v>0.01892403609844401</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1402096666666666</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H21">
-        <v>0.420629</v>
+        <v>53.795945</v>
       </c>
       <c r="I21">
-        <v>0.001992662731478056</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J21">
-        <v>0.001992662731478056</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.29124966666666</v>
+        <v>125.916621</v>
       </c>
       <c r="N21">
-        <v>258.873749</v>
+        <v>377.749863</v>
       </c>
       <c r="O21">
-        <v>0.4900109931646453</v>
+        <v>0.7326331081817961</v>
       </c>
       <c r="P21">
-        <v>0.4900109931646453</v>
+        <v>0.7326331081817961</v>
       </c>
       <c r="Q21">
-        <v>12.09886735201344</v>
+        <v>2257.934539300616</v>
       </c>
       <c r="R21">
-        <v>108.889806168121</v>
+        <v>20321.41085370554</v>
       </c>
       <c r="S21">
-        <v>0.0009764266440937372</v>
+        <v>0.1459863927335244</v>
       </c>
       <c r="T21">
-        <v>0.000976426644093737</v>
+        <v>0.1459863927335244</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,22 +1777,22 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.7909673333333332</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H22">
-        <v>2.372902</v>
+        <v>0.58006</v>
       </c>
       <c r="I22">
-        <v>0.01124124437651646</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J22">
-        <v>0.01124124437651646</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1807,27 +1807,27 @@
         <v>0.024984</v>
       </c>
       <c r="O22">
-        <v>4.729113979504156E-05</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="P22">
-        <v>4.729113979504156E-05</v>
+        <v>4.845562465449258E-05</v>
       </c>
       <c r="Q22">
-        <v>0.006587175951999999</v>
+        <v>0.00161024656</v>
       </c>
       <c r="R22">
-        <v>0.059284583568</v>
+        <v>0.01449221904</v>
       </c>
       <c r="S22">
-        <v>5.316112592800648E-07</v>
+        <v>1.041102311047422E-07</v>
       </c>
       <c r="T22">
-        <v>5.316112592800647E-07</v>
+        <v>1.041102311047422E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.7909673333333332</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H23">
-        <v>2.372902</v>
+        <v>0.58006</v>
       </c>
       <c r="I23">
-        <v>0.01124124437651646</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J23">
-        <v>0.01124124437651646</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>71.90246200000001</v>
+        <v>29.59913266666667</v>
       </c>
       <c r="N23">
-        <v>215.707386</v>
+        <v>88.79739800000002</v>
       </c>
       <c r="O23">
-        <v>0.4083032399195082</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="P23">
-        <v>0.4083032399195082</v>
+        <v>0.172219556027201</v>
       </c>
       <c r="Q23">
-        <v>56.87249862824134</v>
+        <v>5.723090964875557</v>
       </c>
       <c r="R23">
-        <v>511.8524876541721</v>
+        <v>51.50781868388001</v>
       </c>
       <c r="S23">
-        <v>0.004589836499658623</v>
+        <v>0.000370025521424903</v>
       </c>
       <c r="T23">
-        <v>0.004589836499658622</v>
+        <v>0.0003700255214249029</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.7909673333333332</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H24">
-        <v>2.372902</v>
+        <v>0.58006</v>
       </c>
       <c r="I24">
-        <v>0.01124124437651646</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J24">
-        <v>0.01124124437651646</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>17.89860066666667</v>
+        <v>0.02209433333333333</v>
       </c>
       <c r="N24">
-        <v>53.695802</v>
+        <v>0.06628299999999999</v>
       </c>
       <c r="O24">
-        <v>0.1016384757760515</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="P24">
-        <v>0.1016384757760515</v>
+        <v>0.0001285536410892464</v>
       </c>
       <c r="Q24">
-        <v>14.15720843971155</v>
+        <v>0.004272012997777777</v>
       </c>
       <c r="R24">
-        <v>127.414875957404</v>
+        <v>0.03844811698</v>
       </c>
       <c r="S24">
-        <v>0.001142542944255244</v>
+        <v>2.762063099710066E-07</v>
       </c>
       <c r="T24">
-        <v>0.001142542944255244</v>
+        <v>2.762063099710065E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1933533333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.58006</v>
+      </c>
+      <c r="I25">
+        <v>0.002148568547967106</v>
+      </c>
+      <c r="J25">
+        <v>0.002148568547967106</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.32241633333333</v>
+      </c>
+      <c r="N25">
+        <v>48.967249</v>
+      </c>
+      <c r="O25">
+        <v>0.09497032652525923</v>
+      </c>
+      <c r="P25">
+        <v>0.09497032652525923</v>
+      </c>
+      <c r="Q25">
+        <v>3.155993606104444</v>
+      </c>
+      <c r="R25">
+        <v>28.40394245494</v>
+      </c>
+      <c r="S25">
+        <v>0.0002040502565623382</v>
+      </c>
+      <c r="T25">
+        <v>0.0002040502565623381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.1933533333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.58006</v>
+      </c>
+      <c r="I26">
+        <v>0.002148568547967106</v>
+      </c>
+      <c r="J26">
+        <v>0.002148568547967106</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>125.916621</v>
+      </c>
+      <c r="N26">
+        <v>377.749863</v>
+      </c>
+      <c r="O26">
+        <v>0.7326331081817961</v>
+      </c>
+      <c r="P26">
+        <v>0.7326331081817961</v>
+      </c>
+      <c r="Q26">
+        <v>24.34639839242</v>
+      </c>
+      <c r="R26">
+        <v>219.11758553178</v>
+      </c>
+      <c r="S26">
+        <v>0.001574112453438789</v>
+      </c>
+      <c r="T26">
+        <v>0.001574112453438789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.7909673333333332</v>
-      </c>
-      <c r="H25">
-        <v>2.372902</v>
-      </c>
-      <c r="I25">
-        <v>0.01124124437651646</v>
-      </c>
-      <c r="J25">
-        <v>0.01124124437651646</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>86.29124966666666</v>
-      </c>
-      <c r="N25">
-        <v>258.873749</v>
-      </c>
-      <c r="O25">
-        <v>0.4900109931646453</v>
-      </c>
-      <c r="P25">
-        <v>0.4900109931646453</v>
-      </c>
-      <c r="Q25">
-        <v>68.25355963884421</v>
-      </c>
-      <c r="R25">
-        <v>614.2820367495979</v>
-      </c>
-      <c r="S25">
-        <v>0.005508333321343315</v>
-      </c>
-      <c r="T25">
-        <v>0.005508333321343315</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.09074</v>
+      </c>
+      <c r="H27">
+        <v>0.27222</v>
+      </c>
+      <c r="I27">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="J27">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.008328</v>
+      </c>
+      <c r="N27">
+        <v>0.024984</v>
+      </c>
+      <c r="O27">
+        <v>4.845562465449258E-05</v>
+      </c>
+      <c r="P27">
+        <v>4.845562465449258E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.0007556827200000001</v>
+      </c>
+      <c r="R27">
+        <v>0.00680114448</v>
+      </c>
+      <c r="S27">
+        <v>4.885854413566342E-08</v>
+      </c>
+      <c r="T27">
+        <v>4.885854413566342E-08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.09074</v>
+      </c>
+      <c r="H28">
+        <v>0.27222</v>
+      </c>
+      <c r="I28">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="J28">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>29.59913266666667</v>
+      </c>
+      <c r="N28">
+        <v>88.79739800000002</v>
+      </c>
+      <c r="O28">
+        <v>0.172219556027201</v>
+      </c>
+      <c r="P28">
+        <v>0.172219556027201</v>
+      </c>
+      <c r="Q28">
+        <v>2.685825298173334</v>
+      </c>
+      <c r="R28">
+        <v>24.17242768356001</v>
+      </c>
+      <c r="S28">
+        <v>0.0001736516005969849</v>
+      </c>
+      <c r="T28">
+        <v>0.0001736516005969849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.09074</v>
+      </c>
+      <c r="H29">
+        <v>0.27222</v>
+      </c>
+      <c r="I29">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="J29">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.02209433333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.06628299999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.0001285536410892464</v>
+      </c>
+      <c r="P29">
+        <v>0.0001285536410892464</v>
+      </c>
+      <c r="Q29">
+        <v>0.002004839806666667</v>
+      </c>
+      <c r="R29">
+        <v>0.01804355826</v>
+      </c>
+      <c r="S29">
+        <v>1.296225936977337E-07</v>
+      </c>
+      <c r="T29">
+        <v>1.296225936977337E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.09074</v>
+      </c>
+      <c r="H30">
+        <v>0.27222</v>
+      </c>
+      <c r="I30">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="J30">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>16.32241633333333</v>
+      </c>
+      <c r="N30">
+        <v>48.967249</v>
+      </c>
+      <c r="O30">
+        <v>0.09497032652525923</v>
+      </c>
+      <c r="P30">
+        <v>0.09497032652525923</v>
+      </c>
+      <c r="Q30">
+        <v>1.481096058086667</v>
+      </c>
+      <c r="R30">
+        <v>13.32986452278</v>
+      </c>
+      <c r="S30">
+        <v>9.576002627555716E-05</v>
+      </c>
+      <c r="T30">
+        <v>9.576002627555716E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.09074</v>
+      </c>
+      <c r="H31">
+        <v>0.27222</v>
+      </c>
+      <c r="I31">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="J31">
+        <v>0.001008315226231089</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>125.916621</v>
+      </c>
+      <c r="N31">
+        <v>377.749863</v>
+      </c>
+      <c r="O31">
+        <v>0.7326331081817961</v>
+      </c>
+      <c r="P31">
+        <v>0.7326331081817961</v>
+      </c>
+      <c r="Q31">
+        <v>11.42567418954</v>
+      </c>
+      <c r="R31">
+        <v>102.83106770586</v>
+      </c>
+      <c r="S31">
+        <v>0.0007387251182207137</v>
+      </c>
+      <c r="T31">
+        <v>0.0007387251182207137</v>
       </c>
     </row>
   </sheetData>
